--- a/BME_Ders_Programi_2025_2026.xlsx
+++ b/BME_Ders_Programi_2025_2026.xlsx
@@ -1,40 +1,269 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enes\Desktop\education\Business Intelligence and Data Mining\idu-program-generator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00091A2A-9777-408D-9B23-2C90D56009F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ders Programı" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
+  <si>
+    <t>Gün</t>
+  </si>
+  <si>
+    <t>Saat</t>
+  </si>
+  <si>
+    <t>1. Sınıf</t>
+  </si>
+  <si>
+    <t>2. Sınıf</t>
+  </si>
+  <si>
+    <t>3. Sınıf</t>
+  </si>
+  <si>
+    <t>4. Sınıf</t>
+  </si>
+  <si>
+    <t>Pazartesi</t>
+  </si>
+  <si>
+    <t>08:30 - 09:15</t>
+  </si>
+  <si>
+    <t>BME 109 General Chemisty I (AL06)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>09:25 - 10:10</t>
+  </si>
+  <si>
+    <t>10:20 - 11:05</t>
+  </si>
+  <si>
+    <t>11:15 - 12:00</t>
+  </si>
+  <si>
+    <t>BME 107 Physics (C307)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>12:30 - 13:15</t>
+  </si>
+  <si>
+    <t>13:25 - 14:10</t>
+  </si>
+  <si>
+    <t>BME 107 Physics (AL01)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>14:20 - 15:05</t>
+  </si>
+  <si>
+    <t>16:10 - 16:55</t>
+  </si>
+  <si>
+    <t>BME 103 Computer Technology (AL06)
+Doç. Dr. Metin YILDIZ</t>
+  </si>
+  <si>
+    <t>17:05 - 17:50</t>
+  </si>
+  <si>
+    <t>Salı</t>
+  </si>
+  <si>
+    <t>BME 111 Mathematics I (A203)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>BME 303 Cardiovascular Instrumentation (C307)
+Prof. Dr. Mustafa KOCAKULAK</t>
+  </si>
+  <si>
+    <t>BME 321 Biomedical Instrumentation (C307)
+Doç. Dr. Metin YILDIZ</t>
+  </si>
+  <si>
+    <t>BME 105 Medical Biology (A203)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>BME 201 Electronics (AL01)
+Prof. Dr. Serhan YAMAÇLI</t>
+  </si>
+  <si>
+    <t>BME 409 Biyomedical Signal Processing (C307)
+Doç. Dr. Metin YILDIZ</t>
+  </si>
+  <si>
+    <t>15:15 - 16:00</t>
+  </si>
+  <si>
+    <t>BME 110 Mathematics II (A209)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>BME 301 Biomaterials (A211)
+Doç. Dr. Gizem KALELI CAN</t>
+  </si>
+  <si>
+    <t>Çarşamba</t>
+  </si>
+  <si>
+    <t>BME 101 Introduction to Biomedical Engineering (AL01)
+Prof. Dr. Mustafa KOCAKULAK</t>
+  </si>
+  <si>
+    <t>BME 305 Signals and Systems (C307)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>BME 453 Diploma Project I (A211)
+Dr. Öğr. Üyesi Ecem SAYGILI</t>
+  </si>
+  <si>
+    <t>BME 205 Engineering Mathematics I (C307)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>BME 301 Biomaterials (AL01)
+Doç. Dr. Gizem KALELI CAN</t>
+  </si>
+  <si>
+    <t>BME 413 Physiological Control Systems (AL06)
+Dr. Öğr. Üyesi Ecem SAYGILI</t>
+  </si>
+  <si>
+    <t>BME 209 Strength of Materials (A203)
+Dr. Öğr. Üyesi Mustafa Murat YAVUZ</t>
+  </si>
+  <si>
+    <t>BME 319 Occopational Health and Safety II (C307)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>Perşembe</t>
+  </si>
+  <si>
+    <t>BME 113 Linear Algebra (C307)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>BME 201 Electronics (AL06)
+Prof. Dr. Serhan YAMAÇLI</t>
+  </si>
+  <si>
+    <t>BME 401 Project Management and Design (A203)
+Prof. Dr. Mustafa KOCAKULAK</t>
+  </si>
+  <si>
+    <t>BME 213 Occupational Health and Safety I (C307)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>BME 215 Vocational Foreign Language I (C307)
+Dr. Öğr. Üyesi Ecem SAYGILI</t>
+  </si>
+  <si>
+    <t>BME 307 Biomechanics (AL06)
+Arş. Gör. Elif Dilara ALPAY</t>
+  </si>
+  <si>
+    <t>BME 445 Introduction to Nanomedicine (A203)
+Doç. Dr. Gizem KALELI CAN</t>
+  </si>
+  <si>
+    <t>BME 207 Probability and Statistics (C307)
+Doç. Dr. Ali MORTAZAVİ</t>
+  </si>
+  <si>
+    <t>BME 429 Cell and Tissue Engineering (A203)
+Dr. Öğr. Üyesi Ecem SAYGILI</t>
+  </si>
+  <si>
+    <t>Cuma</t>
+  </si>
+  <si>
+    <t>BME 211 Material Science and Technology (A203)
+Dr. Öğr. Üyesi Ecem SAYGILI</t>
+  </si>
+  <si>
+    <t>BME 453 Diploma Project I (AL06)
+Prof. Dr. Serhan YAMAÇLI</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+        <bgColor rgb="FFFFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFACD"/>
+        <bgColor rgb="FFFFFACD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -42,85 +271,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +652,702 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="6" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A41:A44"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>